--- a/loaded_influencer_data/bubu_beauty/bubu_beauty_video.xlsx
+++ b/loaded_influencer_data/bubu_beauty/bubu_beauty_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,25 +506,25 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bubu_beauty/video/7444169073035857207</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2459</v>
+        <v>2571</v>
       </c>
       <c r="C2" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D2" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4.798698657991054</v>
+        <v>4.745235316997277</v>
       </c>
       <c r="I2" t="n">
-        <v>2.968686457909719</v>
+        <v>2.917152858809802</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.830012200081334</v>
+        <v>1.828082458187476</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6506710044733631</v>
+        <v>0.661221314663555</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -559,16 +559,16 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bubu_beauty/video/7446751505362717958</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1902</v>
+        <v>1910</v>
       </c>
       <c r="C3" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D3" t="n">
         <v>48</v>
@@ -587,19 +587,19 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10.04206098843323</v>
+        <v>10.05235602094241</v>
       </c>
       <c r="I3" t="n">
-        <v>7.518401682439538</v>
+        <v>7.539267015706806</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.523659305993691</v>
+        <v>2.513089005235602</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7360672975814931</v>
+        <v>0.7329842931937173</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -613,25 +613,25 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bubu_beauty/video/7384561056284151046</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12200</v>
+        <v>12400</v>
       </c>
       <c r="C4" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D4" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -640,19 +640,19 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1.778688524590164</v>
+        <v>1.782258064516129</v>
       </c>
       <c r="I4" t="n">
-        <v>1.524590163934426</v>
+        <v>1.524193548387097</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2540983606557377</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1721311475409836</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -666,19 +666,19 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@bubu_beauty/video/7486469548435180805</t>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@bubu_beauty/video/7489522758016191750</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>337</v>
+        <v>627</v>
       </c>
       <c r="C5" t="n">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D5" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -687,213 +687,368 @@
         <v>9</v>
       </c>
       <c r="G5" t="inlineStr">
+        <is>
+          <t>My favorite cleaning duo — ANUA 💚
+✅ Anua Heartleaf Pore Control Cleansing Oil
+It was my first cleansing oil after a long break (used only cleansing balms) — and gosh I loved it!</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>11.48325358851675</v>
+      </c>
+      <c r="I5" t="n">
+        <v>8.612440191387559</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.870813397129186</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.435406698564593</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@bubu_beauty/video/7488784973642599735</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>965</v>
+      </c>
+      <c r="C6" t="n">
+        <v>61</v>
+      </c>
+      <c r="D6" t="n">
+        <v>38</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>8</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>TFIT made it RIGHT🔥🔥
+I expected an average concealer — but got a new favorite! I'm so impressed with it❤️
+TFIT Cover Up Pro Concealer — shade 01 (perfect for fair-light to medium skin tone)</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10.25906735751295</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.321243523316062</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.937823834196891</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.8290155440414507</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@bubu_beauty/video/7488050286188170501</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>997</v>
+      </c>
+      <c r="C7" t="n">
+        <v>51</v>
+      </c>
+      <c r="D7" t="n">
+        <v>42</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>14</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>One of the most fun and unique skincare products in my collection🔥
+Dr.Ceuracle Pure Vitamin C Mellight Boosting Essence</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9.327983951855568</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.115346038114343</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.212637913741224</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.404212637913741</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@bubu_beauty/video/7486469548435180805</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>402</v>
+      </c>
+      <c r="C8" t="n">
+        <v>63</v>
+      </c>
+      <c r="D8" t="n">
+        <v>57</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>12</v>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>K-beauty cute makeup haul 💗
 ✨ Fwee 3D Voluming Gloss — shade B05 Currant
 ✨ Lilybyred Bloody Liar Coating Tint — shades 07 (Daring Cherry) and 10 (Strong Cherry)</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>21.36498516320475</v>
-      </c>
-      <c r="I5" t="n">
-        <v>13.35311572700297</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>8.011869436201781</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.670623145400593</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="H8" t="n">
+        <v>29.85074626865671</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15.67164179104478</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>14.17910447761194</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.985074626865671</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bubu_beauty/video/7485368505701879095</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>941</v>
-      </c>
-      <c r="C6" t="n">
-        <v>68</v>
-      </c>
-      <c r="D6" t="n">
-        <v>49</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="B9" t="n">
+        <v>976</v>
+      </c>
+      <c r="C9" t="n">
+        <v>76</v>
+      </c>
+      <c r="D9" t="n">
+        <v>53</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>15</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Have you tried any? 🔥
 You can find all these products on YesStyle
 🎁Use my code BUBUBEAUTE99 to save additional 2-5% off your order</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v>12.43358129649309</v>
-      </c>
-      <c r="I6" t="n">
-        <v>7.226354941551541</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>5.207226354941551</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.594048884165781</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>2025-03-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="H9" t="n">
+        <v>13.2172131147541</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7.786885245901639</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>5.430327868852459</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.536885245901639</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-03-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bubu_beauty/video/7484274313051393286</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>954</v>
-      </c>
-      <c r="C7" t="n">
-        <v>70</v>
-      </c>
-      <c r="D7" t="n">
-        <v>54</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="B10" t="n">
+        <v>966</v>
+      </c>
+      <c r="C10" t="n">
+        <v>74</v>
+      </c>
+      <c r="D10" t="n">
+        <v>56</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
         <v>14</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>OliveYoung No.1 Best Seller for a reason🔥
 Each of these products contain CICA REEDLE™ — literally Microneedling in a Bottle!💉</t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v>12.9979035639413</v>
-      </c>
-      <c r="I7" t="n">
-        <v>7.337526205450734</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>5.660377358490567</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.467505241090147</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>2025-03-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="H10" t="n">
+        <v>13.45755693581781</v>
+      </c>
+      <c r="I10" t="n">
+        <v>7.660455486542443</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>5.797101449275362</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.449275362318841</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bubu_beauty/video/7483520315985890565</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B11" t="n">
         <v>369</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C11" t="n">
         <v>59</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D11" t="n">
         <v>51</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>14</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>What is your fave from Mixsoon?✨
 You can find all these products on YesStyle
 🎁Use my code BUBUBEAUTE99 to save additional 2-5% off your order</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="H11" t="n">
         <v>29.81029810298103</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I11" t="n">
         <v>15.98915989159892</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>13.82113821138211</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L11" t="n">
         <v>3.794037940379404</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-03-19</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bubu_beauty/video/7482814466745306374</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B12" t="n">
         <v>380</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C12" t="n">
         <v>54</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D12" t="n">
         <v>47</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>16</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>7-LAYERS CHALLENGE WORKED🔥
 🐌 JUMISO Snail Mucin 95 + Peptide Facial Essence
@@ -901,1491 +1056,1491 @@
 ✔️95% Snail Mucin</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H12" t="n">
         <v>26.57894736842105</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I12" t="n">
         <v>14.21052631578947</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>12.36842105263158</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L12" t="n">
         <v>4.210526315789473</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bubu_beauty/video/7482046408980237623</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B13" t="n">
         <v>875</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C13" t="n">
         <v>63</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D13" t="n">
         <v>45</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>13</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Combo skin gems from Celimax 💚✨
 💚JIWOOGAE Heartleaf BHA Peeling Pad
 ✨Textured pealing pads with one more gentle and one more exfoliating side</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H13" t="n">
         <v>12.34285714285714</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I13" t="n">
         <v>7.199999999999999</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>5.142857142857142</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L13" t="n">
         <v>1.485714285714286</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bubu_beauty/video/7481302811934788870</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B14" t="n">
         <v>951</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C14" t="n">
         <v>63</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D14" t="n">
         <v>45</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>13</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Combo skin gems from Celimax 💚✨
 💚JIWOOGAE Heartleaf BHA Peeling Pad
 ✨Textured pealing pads with one more gentle and one more exfoliating side</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H14" t="n">
         <v>11.35646687697161</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I14" t="n">
         <v>6.624605678233439</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>4.73186119873817</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L14" t="n">
         <v>1.366982124079916</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bubu_beauty/video/7480590280945650950</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B15" t="n">
         <v>995</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C15" t="n">
         <v>59</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D15" t="n">
         <v>37</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>16</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>❗SPOILER: these products really WOWed me🔥
 Pyunkang Yul slayed it💙
 1️⃣ Pyunkang Yul Moisture Soothing Sun Cream SPF 50+ PA++++</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H15" t="n">
         <v>9.64824120603015</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I15" t="n">
         <v>5.92964824120603</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>3.71859296482412</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L15" t="n">
         <v>1.608040201005025</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-12</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bubu_beauty/video/7479757469854567735</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B16" t="n">
         <v>391</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C16" t="n">
         <v>74</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D16" t="n">
         <v>51</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>14</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Bright and moisturized skin is guaranteed✨
 My combo irritated skin is happy with these products from SKIN1004 (one of my absolute favorite Kbeauty brands ever)🥰</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H16" t="n">
         <v>31.9693094629156</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I16" t="n">
         <v>18.92583120204604</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>13.04347826086956</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L16" t="n">
         <v>3.580562659846547</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-03-09</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bubu_beauty/video/7478273428026346757</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B17" t="n">
         <v>354</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C17" t="n">
         <v>75</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D17" t="n">
         <v>62</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>20</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Skin Healer in a jar 💚💙
 If you're looking for a minimalistic restoring and moisturizing cream that suits even the most sensitive skin — look no further👇</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H17" t="n">
         <v>38.70056497175141</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I17" t="n">
         <v>21.1864406779661</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>17.51412429378531</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L17" t="n">
         <v>5.649717514124294</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-03-05</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bubu_beauty/video/7477591989563706679</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B18" t="n">
         <v>352</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C18" t="n">
         <v>75</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D18" t="n">
         <v>51</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>17</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Layering my favorite morning serums☀️
 You can find them on YesStyle — use my code BUBUBEAUTE99 to save additional 2-5% off your order❤️</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H18" t="n">
         <v>35.79545454545455</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I18" t="n">
         <v>21.30681818181818</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>14.48863636363637</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L18" t="n">
         <v>4.829545454545454</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-03-03</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bubu_beauty/video/7476110409255177477</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B19" t="n">
         <v>974</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C19" t="n">
         <v>67</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D19" t="n">
         <v>40</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>10</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Super affordable K-beauty finds✨
 TIAM is one of the first Korean brands I've tried many years ago!
 And I still really like TIAM for their gentle yet effective products, lightweight textures that suit every skin type and nice prices that won't break your bank🙌</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H19" t="n">
         <v>10.98562628336756</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I19" t="n">
         <v>6.878850102669405</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>4.106776180698152</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L19" t="n">
         <v>1.026694045174538</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-02-27</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bubu_beauty/video/7475392701857271045</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B20" t="n">
         <v>607</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C20" t="n">
         <v>67</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D20" t="n">
         <v>40</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>10</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Super affordable K-beauty finds✨
 TIAM is one of the first Korean brands I've tried many years ago!
 And I still really like TIAM for their gentle yet effective products, lightweight textures that suit every skin type and nice prices that won't break your bank🙌</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H20" t="n">
         <v>17.62767710049424</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I20" t="n">
         <v>11.03789126853377</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>6.589785831960461</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L20" t="n">
         <v>1.647446457990115</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-02-27</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bubu_beauty/video/7474987145904590085</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B21" t="n">
         <v>544</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C21" t="n">
         <v>78</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D21" t="n">
         <v>54</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>10</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Perfect red lips ❤️
 ✨ Fenty Beauty Gloss Bomb Stix (shade The MVP) -
 Juicy and hydrating, buildable coverage, leaves a slightest stain</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H21" t="n">
         <v>24.26470588235294</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I21" t="n">
         <v>14.33823529411765</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>9.926470588235293</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L21" t="n">
         <v>1.838235294117647</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-02-24</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bubu_beauty/video/7473815146859613495</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B22" t="n">
         <v>528</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C22" t="n">
         <v>86</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D22" t="n">
         <v>48</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>12</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>It's my go-to night cream🌙✨
 It locks in all my actives, doesn't let them irritate or dry my skin and restores all the damage caused during the day🙌</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H22" t="n">
         <v>25.37878787878788</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I22" t="n">
         <v>16.28787878787879</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>9.090909090909092</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L22" t="n">
         <v>2.272727272727273</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-02-21</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bubu_beauty/photo/7473108753630498103</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B23" t="n">
         <v>399</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C23" t="n">
         <v>59</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D23" t="n">
         <v>36</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>10</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>🎁You can shop Korean skincare on YesStyle and use my code BUBUBEAUTE99 to save additional 2-5% off your order</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H23" t="n">
         <v>23.80952380952381</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I23" t="n">
         <v>14.78696741854636</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>9.022556390977442</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L23" t="n">
         <v>2.506265664160401</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-02-19</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bubu_beauty/video/7471278197473070391</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B24" t="n">
         <v>944</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C24" t="n">
         <v>85</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D24" t="n">
         <v>48</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>12</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Glass skin is guaranteed👌✨
 I love this quite basic hydrating routine with @mixsoon_global products when my skin needs a break from actives🙌</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H24" t="n">
         <v>14.08898305084746</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I24" t="n">
         <v>9.004237288135593</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>5.084745762711865</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L24" t="n">
         <v>1.271186440677966</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-02-14</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bubu_beauty/video/7469811547557088518</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B25" t="n">
         <v>3097</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C25" t="n">
         <v>88</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D25" t="n">
         <v>51</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>13</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>The most pigmented tint in my life🔥
 @NYX Professional Makeup Lip IV Hydrating Gloss Serum - shade 11 RED-Y SET WET</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H25" t="n">
         <v>4.488214401033258</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I25" t="n">
         <v>2.841459476913142</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>1.646754924120116</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L25" t="n">
         <v>0.4197610590894414</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-02-11</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bubu_beauty/video/7468680770610154758</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B26" t="n">
         <v>1067</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C26" t="n">
         <v>84</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D26" t="n">
         <v>46</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>15</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>I didn't expect so much gunk to come out😱🔥
 I have combo skin which during winter is on the dry side, so I don't have a lot of problems with pores - I thought...</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H26" t="n">
         <v>12.18369259606373</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I26" t="n">
         <v>7.872539831302718</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>4.311152764761013</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L26" t="n">
         <v>1.4058106841612</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-02-07</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bubu_beauty/photo/7467976617013284102</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B27" t="n">
         <v>778</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C27" t="n">
         <v>76</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D27" t="n">
         <v>36</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>12</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>@skinfood_global Carrot Carotene Calming Water Pad - now I understand why it is loved by so many🔥
 ✨It hydrates skin really well</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H27" t="n">
         <v>14.39588688946015</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I27" t="n">
         <v>9.768637532133676</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>4.627249357326478</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L27" t="n">
         <v>1.542416452442159</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-02-06</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bubu_beauty/video/7467276041602551046</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B28" t="n">
         <v>988</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C28" t="n">
         <v>54</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D28" t="n">
         <v>31</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>8</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Sweet treat for your lips🧁🍭
 Dasique Fruity Lip Jam @Dasique Global
 I bought it in cool toned nude shade - 09 Lychee Jam</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H28" t="n">
         <v>8.60323886639676</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I28" t="n">
         <v>5.465587044534413</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>3.137651821862348</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L28" t="n">
         <v>0.8097165991902834</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-02-04</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bubu_beauty/video/7466101803067641094</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B29" t="n">
         <v>941</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C29" t="n">
         <v>45</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D29" t="n">
         <v>32</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>6</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Best Korean brightening products✨
 ✨ P.CALM Retinolagen Ampoule - contains PHA and Retinal, gently exfoliates, smoothes skin texture and evens skin tone</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H29" t="n">
         <v>8.182784272051009</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I29" t="n">
         <v>4.782146652497343</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>3.400637619553666</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L29" t="n">
         <v>0.6376195536663124</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-02-01</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bubu_beauty/video/7464973692645281029</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B30" t="n">
         <v>1064</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C30" t="n">
         <v>61</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D30" t="n">
         <v>30</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>5</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>We need more fun makeup🔥🖤
 I don't really care a lot about pH activated makeup, but this Black Spectrum collection from</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H30" t="n">
         <v>8.552631578947368</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I30" t="n">
         <v>5.733082706766917</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>2.819548872180451</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L30" t="n">
         <v>0.4699248120300752</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-01-28</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bubu_beauty/video/7463483953358359814</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B31" t="n">
         <v>1593</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C31" t="n">
         <v>141</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D31" t="n">
         <v>39</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>11</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>Relatable?😅😅
 Hope we don't judge😂
 This Dior is my repurchases (despite its hight price) - it's sooo good🔥 I don't know if I'd ever find better concealer!</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H31" t="n">
         <v>11.29943502824859</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I31" t="n">
         <v>8.851224105461393</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>2.448210922787194</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L31" t="n">
         <v>0.6905210295040803</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-01-24</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bubu_beauty/video/7462387623076580614</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B32" t="n">
         <v>1408</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C32" t="n">
         <v>175</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D32" t="n">
         <v>51</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>19</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>Best DIY sheet mask🔥 Not cheap but practical😅🙌
 Soybean Milk Pad Set - is one of my absolute favorite products from Mixsoon!</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H32" t="n">
         <v>16.05113636363636</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I32" t="n">
         <v>12.42897727272727</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>3.622159090909091</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L32" t="n">
         <v>1.349431818181818</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-01-22</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bubu_beauty/video/7461630398439738629</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B33" t="n">
         <v>1063</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C33" t="n">
         <v>63</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D33" t="n">
         <v>35</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>10</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>Skin rejuvenation and amazing glow✨
 I've always been skeptical about creams with actives, but this KAINE Caffetinal cream really got me!</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H33" t="n">
         <v>9.219190968955786</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I33" t="n">
         <v>5.926622765757291</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>3.292568203198495</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L33" t="n">
         <v>0.9407337723424271</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-01-19</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bubu_beauty/video/7460852912164457733</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B34" t="n">
         <v>421</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C34" t="n">
         <v>102</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D34" t="n">
         <v>35</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>6</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>What are you guilty of?😅
 We listen and we don't judge🙌
 PS: I in NO WAY advise anyone to do the same! But I believe that it's absolutely OK to make "mistakes" like these, while they don't harm anybody💁</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H34" t="n">
         <v>32.54156769596199</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I34" t="n">
         <v>24.22802850356295</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>8.31353919239905</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L34" t="n">
         <v>1.425178147268409</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-01-17</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bubu_beauty/video/7459411633698295046</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B35" t="n">
         <v>956</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C35" t="n">
         <v>54</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D35" t="n">
         <v>33</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>4</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Curious products from Too Cool For School😻
 🛍️Save additional 2-5% on @YesStyle with my code: BUBUBEAUTE99✨</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H35" t="n">
         <v>9.100418410041842</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I35" t="n">
         <v>5.648535564853557</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>3.451882845188285</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L35" t="n">
         <v>0.4184100418410042</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-01-13</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bubu_beauty/video/7458283136884133126</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B36" t="n">
         <v>1005</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C36" t="n">
         <v>55</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D36" t="n">
         <v>31</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>11</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Centellian24 slayed it🔥 with Madeca Acnience Line
 To tell the truth, I didn't expect that my dryness prone in winter skin will love these products so much😻</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H36" t="n">
         <v>8.55721393034826</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I36" t="n">
         <v>5.472636815920398</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>3.084577114427861</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L36" t="n">
         <v>1.09452736318408</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-01-10</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bubu_beauty/video/7457537013294566661</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B37" t="n">
         <v>1072</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C37" t="n">
         <v>54</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D37" t="n">
         <v>33</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>6</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>Centellian24 slayed it🔥 with Madeca Acnience Line
 To tell the truth, I didn't expect that my dryness prone in winter skin will love these products so much😻</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H37" t="n">
         <v>8.115671641791044</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I37" t="n">
         <v>5.037313432835821</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>3.078358208955224</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L37" t="n">
         <v>0.5597014925373134</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2025-01-08</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bubu_beauty/video/7456793346351189253</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B38" t="n">
         <v>1107</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C38" t="n">
         <v>58</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D38" t="n">
         <v>30</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>7</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>Double step cleansing by Mixsoon💧
 1️⃣Mixsoon Bean Cleansing Oil
 I really like it - it has super lightweight texture that removes even heavy makeup!</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H38" t="n">
         <v>7.949412827461607</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I38" t="n">
         <v>5.239385727190606</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>2.710027100271003</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L38" t="n">
         <v>0.6323396567299007</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2025-01-06</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bubu_beauty/video/7455647575283223814</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B39" t="n">
         <v>1110</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C39" t="n">
         <v>62</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D39" t="n">
         <v>26</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>6</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>Double step cleansing by Mixsoon💧
 1️⃣Mixsoon Bean Cleansing Oil
 I really like it - it has super lightweight texture that removes even heavy makeup!</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H39" t="n">
         <v>7.927927927927928</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I39" t="n">
         <v>5.585585585585585</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>2.342342342342342</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L39" t="n">
         <v>0.5405405405405406</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2025-01-03</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bubu_beauty/video/7454583117785877766</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B40" t="n">
         <v>974</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C40" t="n">
         <v>54</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D40" t="n">
         <v>34</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>9</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Glowy makeup in my favorite shades💜❄️
 Products👇
 ✨Rimmel Multi Tasker Better Than Filters 3 in 1</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H40" t="n">
         <v>9.034907597535934</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I40" t="n">
         <v>5.544147843942506</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>3.490759753593429</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L40" t="n">
         <v>0.9240246406570842</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2024-12-31</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bubu_beauty/video/7453796896050597126</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B41" t="n">
         <v>1324</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C41" t="n">
         <v>89</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D41" t="n">
         <v>40</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>15</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>BEST skincare of 2024✨ Part 2🔥
 Serums:
@@ -2393,309 +2548,309 @@
 ✨Revox B77 Anti Dark Spot Serum</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H41" t="n">
         <v>9.743202416918429</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I41" t="n">
         <v>6.722054380664652</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>3.021148036253777</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L41" t="n">
         <v>1.132930513595166</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2024-12-29</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bubu_beauty/video/7453036002672954630</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B42" t="n">
         <v>1013</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C42" t="n">
         <v>68</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D42" t="n">
         <v>29</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>10</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>Absolute BEST skincare of 2024✨ Part 1🔥
 Cleansers:
 ✨ANUA Heartleaf Quercetinol Pore Deep Cleansing Foam</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H42" t="n">
         <v>9.575518262586376</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I42" t="n">
         <v>6.712734452122408</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>2.862783810463969</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L42" t="n">
         <v>0.9871668311944718</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2024-12-27</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bubu_beauty/video/7451971876659809541</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B43" t="n">
         <v>994</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C43" t="n">
         <v>55</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D43" t="n">
         <v>7</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>8</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>All of them look perfect solo on the eyes✨ But you also can use them with more complex makeup
 ✨Colourpop Super Shock Shadow - shade FROG</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H43" t="n">
         <v>6.237424547283702</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I43" t="n">
         <v>5.533199195171027</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>0.7042253521126761</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L43" t="n">
         <v>0.8048289738430584</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2024-12-24</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bubu_beauty/video/7451189059554184454</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B44" t="n">
         <v>993</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C44" t="n">
         <v>57</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D44" t="n">
         <v>2</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>11</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>Which products caught your eye?🤩
 You can shop all your dream K-beauty on YesStyle - and save additional 2-5% with my code: BUBUBEAUTE99✨</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H44" t="n">
         <v>5.94159113796576</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I44" t="n">
         <v>5.740181268882175</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>0.2014098690835851</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L44" t="n">
         <v>1.107754279959718</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2024-12-22</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bubu_beauty/video/7450134530746240261</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B45" t="n">
         <v>1140</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C45" t="n">
         <v>57</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D45" t="n">
         <v>2</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>11</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>Which products caught your eye?🤩
 You can shop all your dream K-beauty on YesStyle - and save additional 2-5% with my code: BUBUBEAUTE99✨</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H45" t="n">
         <v>5.175438596491229</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I45" t="n">
         <v>5</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>0.1754385964912281</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L45" t="n">
         <v>0.9649122807017544</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2024-12-22</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bubu_beauty/video/7449024407919512838</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B46" t="n">
         <v>1634</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C46" t="n">
         <v>65</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D46" t="n">
         <v>11</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>9</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>My essential ampoule for winter❄️
 P.CALM Retinolagen Ampoule
 It was a love at first try🙈🤩 So gentle, nourishing and brightening - perfect for nights when you don't wanna challenge your skin with aggressive ingredients, but still wanna see visible results🙌</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H46" t="n">
         <v>4.651162790697675</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I46" t="n">
         <v>3.97796817625459</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>0.6731946144430845</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L46" t="n">
         <v>0.550795593635251</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2024-12-19</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bubu_beauty/video/7447875262487743750</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B47" t="n">
         <v>984</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C47" t="n">
         <v>64</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D47" t="n">
         <v>40</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>14</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>K-beauty lippies are too good😻✨
 Amuse Bebe Tint - shade 08 Grape Bebe
@@ -2703,52 +2858,52 @@
 My lips are quite dry, especially in winter, but this tint feels absolutely comfortable and hydrating✨</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H47" t="n">
         <v>10.56910569105691</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I47" t="n">
         <v>6.504065040650407</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>4.065040650406504</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L47" t="n">
         <v>1.422764227642276</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2024-12-16</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bubu_beauty/video/7445618525890366725</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B48" t="n">
         <v>1019</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C48" t="n">
         <v>63</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D48" t="n">
         <v>38</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>11</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>K-beauty lippies are too good😻✨
 Amuse Bebe Tint - shade 08 Grape Bebe
@@ -2756,286 +2911,182 @@
 My lips are quite dry, especially in winter, but this tint feels absolutely comfortable and hydrating✨</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="H48" t="n">
         <v>9.911678115799804</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I48" t="n">
         <v>6.182531894013739</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>3.729146221786065</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L48" t="n">
         <v>1.079489695780177</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2024-12-13</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bubu_beauty/video/7444916733007220023</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B49" t="n">
         <v>1972</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C49" t="n">
         <v>65</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D49" t="n">
         <v>3</v>
       </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>14</v>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>Perfect combo for calmed and plumped skin ✨✨
 🍀Bellflower Centella Leaf 75% Serum
 Nice watery (but not too much) serum with centella leaf pieces that melt into the skin. Can recommended it for stressed, irritated, dehydrated and redness prone skin.</t>
         </is>
       </c>
-      <c r="H46" t="n">
+      <c r="H49" t="n">
         <v>3.448275862068965</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I49" t="n">
         <v>3.296146044624747</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>0.1521298174442191</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L49" t="n">
         <v>0.7099391480730223</v>
       </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2024-12-7</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bubu_beauty/photo/7443425893835377976</t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="B50" t="n">
         <v>437</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C50" t="n">
         <v>87</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D50" t="n">
         <v>46</v>
       </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>16</v>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>It was irresistible🤩😭
 Yes, I already have insane amount of lippies, but it will never be enough😂😂
 This one is👇</t>
         </is>
       </c>
-      <c r="H47" t="n">
+      <c r="H50" t="n">
         <v>30.43478260869566</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I50" t="n">
         <v>19.90846681922197</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>10.52631578947368</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L50" t="n">
         <v>3.661327231121282</v>
       </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2024-12-5</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bubu_beauty/video/7442367785482603832</t>
         </is>
       </c>
-      <c r="B48" t="n">
+      <c r="B51" t="n">
         <v>657</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C51" t="n">
         <v>68</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D51" t="n">
         <v>39</v>
       </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>14</v>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>Shop on YesStyle with my discount rewards code: BUBUBEAUTE99
 (It will save you additional 2-5% and combines with other coupons🤩)</t>
         </is>
       </c>
-      <c r="H48" t="n">
+      <c r="H51" t="n">
         <v>16.28614916286149</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I51" t="n">
         <v>10.35007610350076</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>5.93607305936073</v>
       </c>
-      <c r="L48" t="n">
+      <c r="L51" t="n">
         <v>2.13089802130898</v>
       </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2024-12-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@bubu_beauty/video/7441956868320251192</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>605</v>
-      </c>
-      <c r="C49" t="n">
-        <v>62</v>
-      </c>
-      <c r="D49" t="n">
-        <v>3</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>9</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Best combo for irritated skin💯
-It literally saves my skin every time✨
-✅@byoma Hydrating Milky Toner — calming, soothing and deeply moisturizing</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>10.74380165289256</v>
-      </c>
-      <c r="I49" t="n">
-        <v>10.24793388429752</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.4958677685950413</v>
-      </c>
-      <c r="L49" t="n">
-        <v>1.487603305785124</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>2024-11-29</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@bubu_beauty/photo/7441525958768708919</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>387</v>
-      </c>
-      <c r="C50" t="n">
-        <v>70</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>8</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Best "one and done" cream🔥
-@Centellian24_global Madeca Cream Time Reverse
-I've been using it for almost two weeks - and it really addresses majority of skin concerns: from fine lines and wrinkles to damaged skin barrier and acne relief✨ Cause Centella and Madecassoside are truly amazing and still quite underrated ingredients🙌</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>18.34625322997416</v>
-      </c>
-      <c r="I50" t="n">
-        <v>18.08785529715762</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2583979328165375</v>
-      </c>
-      <c r="L50" t="n">
-        <v>2.0671834625323</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>2024-11-27</t>
         </is>
       </c>
     </row>
